--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -867,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK54"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1774,7 +1774,7 @@
         <v>2.5</v>
       </c>
       <c r="AT5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT7">
         <v>1.5</v>
@@ -4639,7 +4639,7 @@
         <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU20">
         <v>1.31</v>
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT27">
         <v>1.33</v>
@@ -8268,7 +8268,7 @@
         <v>2</v>
       </c>
       <c r="AT39">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU39">
         <v>1.96</v>
@@ -9602,7 +9602,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT46">
         <v>2</v>
@@ -9796,7 +9796,7 @@
         <v>1.75</v>
       </c>
       <c r="AT47">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU47">
         <v>1.89</v>
@@ -11185,6 +11185,197 @@
       </c>
       <c r="BK54">
         <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:63">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5002266</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2">
+        <v>44995.85416666666</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>81</v>
+      </c>
+      <c r="P55" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q55">
+        <v>4</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>5</v>
+      </c>
+      <c r="T55">
+        <v>3.36</v>
+      </c>
+      <c r="U55">
+        <v>2.16</v>
+      </c>
+      <c r="V55">
+        <v>3.02</v>
+      </c>
+      <c r="W55">
+        <v>1.38</v>
+      </c>
+      <c r="X55">
+        <v>2.91</v>
+      </c>
+      <c r="Y55">
+        <v>2.75</v>
+      </c>
+      <c r="Z55">
+        <v>1.42</v>
+      </c>
+      <c r="AA55">
+        <v>6.85</v>
+      </c>
+      <c r="AB55">
+        <v>1.08</v>
+      </c>
+      <c r="AC55">
+        <v>2.76</v>
+      </c>
+      <c r="AD55">
+        <v>3.44</v>
+      </c>
+      <c r="AE55">
+        <v>2.57</v>
+      </c>
+      <c r="AF55">
+        <v>1.05</v>
+      </c>
+      <c r="AG55">
+        <v>9</v>
+      </c>
+      <c r="AH55">
+        <v>1.29</v>
+      </c>
+      <c r="AI55">
+        <v>3.5</v>
+      </c>
+      <c r="AJ55">
+        <v>1.86</v>
+      </c>
+      <c r="AK55">
+        <v>2</v>
+      </c>
+      <c r="AL55">
+        <v>1.7</v>
+      </c>
+      <c r="AM55">
+        <v>2.05</v>
+      </c>
+      <c r="AN55">
+        <v>1.45</v>
+      </c>
+      <c r="AO55">
+        <v>1.25</v>
+      </c>
+      <c r="AP55">
+        <v>1.37</v>
+      </c>
+      <c r="AQ55">
+        <v>0.33</v>
+      </c>
+      <c r="AR55">
+        <v>0.75</v>
+      </c>
+      <c r="AS55">
+        <v>0.5</v>
+      </c>
+      <c r="AT55">
+        <v>0.8</v>
+      </c>
+      <c r="AU55">
+        <v>1.88</v>
+      </c>
+      <c r="AV55">
+        <v>1.57</v>
+      </c>
+      <c r="AW55">
+        <v>3.45</v>
+      </c>
+      <c r="AX55">
+        <v>1.75</v>
+      </c>
+      <c r="AY55">
+        <v>8</v>
+      </c>
+      <c r="AZ55">
+        <v>2.44</v>
+      </c>
+      <c r="BA55">
+        <v>1.36</v>
+      </c>
+      <c r="BB55">
+        <v>1.66</v>
+      </c>
+      <c r="BC55">
+        <v>2.12</v>
+      </c>
+      <c r="BD55">
+        <v>2.9</v>
+      </c>
+      <c r="BE55">
+        <v>4.1</v>
+      </c>
+      <c r="BF55">
+        <v>5</v>
+      </c>
+      <c r="BG55">
+        <v>3</v>
+      </c>
+      <c r="BH55">
+        <v>6</v>
+      </c>
+      <c r="BI55">
+        <v>2</v>
+      </c>
+      <c r="BJ55">
+        <v>11</v>
+      </c>
+      <c r="BK55">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,15 @@
     <t>['18', '38', '59']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['55', '78']</t>
+  </si>
+  <si>
     <t>['43']</t>
   </si>
   <si>
@@ -506,6 +515,12 @@
   </si>
   <si>
     <t>['11', '45+5']</t>
+  </si>
+  <si>
+    <t>['45+2', '71', '90']</t>
+  </si>
+  <si>
+    <t>['2', '38']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK55"/>
+  <dimension ref="A1:BK58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1302,7 +1317,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -1392,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1493,7 +1508,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1875,7 +1890,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -1962,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT6">
         <v>2.25</v>
@@ -2066,7 +2081,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2344,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2448,7 +2463,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2538,7 +2553,7 @@
         <v>1.75</v>
       </c>
       <c r="AT9">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2639,7 +2654,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2830,7 +2845,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3021,7 +3036,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3302,7 +3317,7 @@
         <v>1.75</v>
       </c>
       <c r="AT13">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU13">
         <v>2.06</v>
@@ -3403,7 +3418,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3490,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>0.33</v>
@@ -3594,7 +3609,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -3785,7 +3800,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4167,7 +4182,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4358,7 +4373,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -4445,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT19">
         <v>0.25</v>
@@ -4549,7 +4564,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4740,7 +4755,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5313,7 +5328,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5403,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU24">
         <v>2.1</v>
@@ -5504,7 +5519,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5594,7 +5609,7 @@
         <v>1.33</v>
       </c>
       <c r="AT25">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU25">
         <v>2.07</v>
@@ -5695,7 +5710,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5886,7 +5901,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6077,7 +6092,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6355,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT29">
         <v>1</v>
@@ -6459,7 +6474,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6546,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT30">
         <v>0.33</v>
@@ -6740,7 +6755,7 @@
         <v>1.75</v>
       </c>
       <c r="AT31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -6841,7 +6856,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -6928,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT32">
         <v>0.75</v>
@@ -7032,7 +7047,7 @@
         <v>107</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7223,7 +7238,7 @@
         <v>108</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7313,7 +7328,7 @@
         <v>1.75</v>
       </c>
       <c r="AT34">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU34">
         <v>1.47</v>
@@ -7414,7 +7429,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7504,7 +7519,7 @@
         <v>2.5</v>
       </c>
       <c r="AT35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.71</v>
@@ -7605,7 +7620,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7796,7 +7811,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -7987,7 +8002,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8178,7 +8193,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8369,7 +8384,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8456,7 +8471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT40">
         <v>2</v>
@@ -8560,7 +8575,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8647,7 +8662,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT41">
         <v>1.33</v>
@@ -9032,7 +9047,7 @@
         <v>2.33</v>
       </c>
       <c r="AT43">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>2.16</v>
@@ -9133,7 +9148,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>11</v>
@@ -9324,7 +9339,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9411,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT45">
         <v>0.25</v>
@@ -9515,7 +9530,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9706,7 +9721,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9897,7 +9912,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -9987,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU48">
         <v>1.87</v>
@@ -10088,7 +10103,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>11</v>
@@ -10279,7 +10294,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10470,7 +10485,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11043,7 +11058,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11376,6 +11391,579 @@
       </c>
       <c r="BK55">
         <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:63">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5002270</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>127</v>
+      </c>
+      <c r="P56" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>5</v>
+      </c>
+      <c r="T56">
+        <v>2.75</v>
+      </c>
+      <c r="U56">
+        <v>2.1</v>
+      </c>
+      <c r="V56">
+        <v>3.5</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>2.75</v>
+      </c>
+      <c r="Y56">
+        <v>2.75</v>
+      </c>
+      <c r="Z56">
+        <v>1.4</v>
+      </c>
+      <c r="AA56">
+        <v>6.5</v>
+      </c>
+      <c r="AB56">
+        <v>1.1</v>
+      </c>
+      <c r="AC56">
+        <v>2.03</v>
+      </c>
+      <c r="AD56">
+        <v>3.35</v>
+      </c>
+      <c r="AE56">
+        <v>3.25</v>
+      </c>
+      <c r="AF56">
+        <v>1.06</v>
+      </c>
+      <c r="AG56">
+        <v>8</v>
+      </c>
+      <c r="AH56">
+        <v>1.33</v>
+      </c>
+      <c r="AI56">
+        <v>3.25</v>
+      </c>
+      <c r="AJ56">
+        <v>1.92</v>
+      </c>
+      <c r="AK56">
+        <v>1.73</v>
+      </c>
+      <c r="AL56">
+        <v>1.8</v>
+      </c>
+      <c r="AM56">
+        <v>1.91</v>
+      </c>
+      <c r="AN56">
+        <v>1.25</v>
+      </c>
+      <c r="AO56">
+        <v>1.33</v>
+      </c>
+      <c r="AP56">
+        <v>1.7</v>
+      </c>
+      <c r="AQ56">
+        <v>2</v>
+      </c>
+      <c r="AR56">
+        <v>1.25</v>
+      </c>
+      <c r="AS56">
+        <v>2.25</v>
+      </c>
+      <c r="AT56">
+        <v>1</v>
+      </c>
+      <c r="AU56">
+        <v>2.13</v>
+      </c>
+      <c r="AV56">
+        <v>1.14</v>
+      </c>
+      <c r="AW56">
+        <v>3.27</v>
+      </c>
+      <c r="AX56">
+        <v>1.55</v>
+      </c>
+      <c r="AY56">
+        <v>8</v>
+      </c>
+      <c r="AZ56">
+        <v>2.92</v>
+      </c>
+      <c r="BA56">
+        <v>1.36</v>
+      </c>
+      <c r="BB56">
+        <v>1.67</v>
+      </c>
+      <c r="BC56">
+        <v>2.15</v>
+      </c>
+      <c r="BD56">
+        <v>2.95</v>
+      </c>
+      <c r="BE56">
+        <v>4.1</v>
+      </c>
+      <c r="BF56">
+        <v>12</v>
+      </c>
+      <c r="BG56">
+        <v>2</v>
+      </c>
+      <c r="BH56">
+        <v>8</v>
+      </c>
+      <c r="BI56">
+        <v>2</v>
+      </c>
+      <c r="BJ56">
+        <v>20</v>
+      </c>
+      <c r="BK56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5002271</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2">
+        <v>44996.85416666666</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
+        <v>77</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>128</v>
+      </c>
+      <c r="P57" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>8</v>
+      </c>
+      <c r="S57">
+        <v>10</v>
+      </c>
+      <c r="T57">
+        <v>2.75</v>
+      </c>
+      <c r="U57">
+        <v>2.15</v>
+      </c>
+      <c r="V57">
+        <v>3.4</v>
+      </c>
+      <c r="W57">
+        <v>1.36</v>
+      </c>
+      <c r="X57">
+        <v>3</v>
+      </c>
+      <c r="Y57">
+        <v>2.68</v>
+      </c>
+      <c r="Z57">
+        <v>1.44</v>
+      </c>
+      <c r="AA57">
+        <v>6.55</v>
+      </c>
+      <c r="AB57">
+        <v>1.09</v>
+      </c>
+      <c r="AC57">
+        <v>2.45</v>
+      </c>
+      <c r="AD57">
+        <v>3.38</v>
+      </c>
+      <c r="AE57">
+        <v>2.81</v>
+      </c>
+      <c r="AF57">
+        <v>1.05</v>
+      </c>
+      <c r="AG57">
+        <v>9</v>
+      </c>
+      <c r="AH57">
+        <v>1.29</v>
+      </c>
+      <c r="AI57">
+        <v>3.5</v>
+      </c>
+      <c r="AJ57">
+        <v>1.84</v>
+      </c>
+      <c r="AK57">
+        <v>1.94</v>
+      </c>
+      <c r="AL57">
+        <v>1.67</v>
+      </c>
+      <c r="AM57">
+        <v>2.1</v>
+      </c>
+      <c r="AN57">
+        <v>1.36</v>
+      </c>
+      <c r="AO57">
+        <v>1.29</v>
+      </c>
+      <c r="AP57">
+        <v>1.6</v>
+      </c>
+      <c r="AQ57">
+        <v>1.5</v>
+      </c>
+      <c r="AR57">
+        <v>2.25</v>
+      </c>
+      <c r="AS57">
+        <v>1.2</v>
+      </c>
+      <c r="AT57">
+        <v>2.4</v>
+      </c>
+      <c r="AU57">
+        <v>1.97</v>
+      </c>
+      <c r="AV57">
+        <v>1.27</v>
+      </c>
+      <c r="AW57">
+        <v>3.24</v>
+      </c>
+      <c r="AX57">
+        <v>1.82</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>2.39</v>
+      </c>
+      <c r="BA57">
+        <v>1.25</v>
+      </c>
+      <c r="BB57">
+        <v>1.47</v>
+      </c>
+      <c r="BC57">
+        <v>1.85</v>
+      </c>
+      <c r="BD57">
+        <v>2.38</v>
+      </c>
+      <c r="BE57">
+        <v>3.25</v>
+      </c>
+      <c r="BF57">
+        <v>5</v>
+      </c>
+      <c r="BG57">
+        <v>9</v>
+      </c>
+      <c r="BH57">
+        <v>2</v>
+      </c>
+      <c r="BI57">
+        <v>11</v>
+      </c>
+      <c r="BJ57">
+        <v>7</v>
+      </c>
+      <c r="BK57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5002267</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2">
+        <v>44997.5</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>129</v>
+      </c>
+      <c r="P58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q58">
+        <v>7</v>
+      </c>
+      <c r="R58">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>2.1</v>
+      </c>
+      <c r="U58">
+        <v>2.35</v>
+      </c>
+      <c r="V58">
+        <v>4.5</v>
+      </c>
+      <c r="W58">
+        <v>1.29</v>
+      </c>
+      <c r="X58">
+        <v>3.3</v>
+      </c>
+      <c r="Y58">
+        <v>2.3</v>
+      </c>
+      <c r="Z58">
+        <v>1.53</v>
+      </c>
+      <c r="AA58">
+        <v>5.25</v>
+      </c>
+      <c r="AB58">
+        <v>1.13</v>
+      </c>
+      <c r="AC58">
+        <v>1.57</v>
+      </c>
+      <c r="AD58">
+        <v>4.05</v>
+      </c>
+      <c r="AE58">
+        <v>4.35</v>
+      </c>
+      <c r="AF58">
+        <v>1.02</v>
+      </c>
+      <c r="AG58">
+        <v>17</v>
+      </c>
+      <c r="AH58">
+        <v>1.2</v>
+      </c>
+      <c r="AI58">
+        <v>4.5</v>
+      </c>
+      <c r="AJ58">
+        <v>1.55</v>
+      </c>
+      <c r="AK58">
+        <v>2.21</v>
+      </c>
+      <c r="AL58">
+        <v>1.65</v>
+      </c>
+      <c r="AM58">
+        <v>2.1</v>
+      </c>
+      <c r="AN58">
+        <v>1.18</v>
+      </c>
+      <c r="AO58">
+        <v>1.21</v>
+      </c>
+      <c r="AP58">
+        <v>2.25</v>
+      </c>
+      <c r="AQ58">
+        <v>2.33</v>
+      </c>
+      <c r="AR58">
+        <v>0.5</v>
+      </c>
+      <c r="AS58">
+        <v>2</v>
+      </c>
+      <c r="AT58">
+        <v>0.67</v>
+      </c>
+      <c r="AU58">
+        <v>1.81</v>
+      </c>
+      <c r="AV58">
+        <v>1.52</v>
+      </c>
+      <c r="AW58">
+        <v>3.33</v>
+      </c>
+      <c r="AX58">
+        <v>1.75</v>
+      </c>
+      <c r="AY58">
+        <v>8</v>
+      </c>
+      <c r="AZ58">
+        <v>2.52</v>
+      </c>
+      <c r="BA58">
+        <v>1.25</v>
+      </c>
+      <c r="BB58">
+        <v>1.47</v>
+      </c>
+      <c r="BC58">
+        <v>1.88</v>
+      </c>
+      <c r="BD58">
+        <v>2.38</v>
+      </c>
+      <c r="BE58">
+        <v>3.25</v>
+      </c>
+      <c r="BF58">
+        <v>7</v>
+      </c>
+      <c r="BG58">
+        <v>8</v>
+      </c>
+      <c r="BH58">
+        <v>5</v>
+      </c>
+      <c r="BI58">
+        <v>6</v>
+      </c>
+      <c r="BJ58">
+        <v>12</v>
+      </c>
+      <c r="BK58">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,12 @@
     <t>['55', '78']</t>
   </si>
   <si>
+    <t>['22', '56']</t>
+  </si>
+  <si>
+    <t>['24', '35']</t>
+  </si>
+  <si>
     <t>['43']</t>
   </si>
   <si>
@@ -521,6 +527,12 @@
   </si>
   <si>
     <t>['2', '38']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['15', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK58"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1216,7 +1228,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1317,7 +1329,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -1508,7 +1520,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1890,7 +1902,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>7</v>
@@ -2081,7 +2093,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2463,7 +2475,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2654,7 +2666,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2845,7 +2857,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3036,7 +3048,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3123,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>1.33</v>
@@ -3418,7 +3430,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3609,7 +3621,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -3699,7 +3711,7 @@
         <v>3</v>
       </c>
       <c r="AT15">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3800,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4078,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT17">
         <v>0.75</v>
@@ -4182,7 +4194,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -4269,7 +4281,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT18">
         <v>2.25</v>
@@ -4373,7 +4385,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -4564,7 +4576,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4755,7 +4767,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5036,7 +5048,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU22">
         <v>2.13</v>
@@ -5328,7 +5340,7 @@
         <v>81</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5519,7 +5531,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -5606,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT25">
         <v>0.67</v>
@@ -5710,7 +5722,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5901,7 +5913,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6092,7 +6104,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6474,7 +6486,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6564,7 +6576,7 @@
         <v>2</v>
       </c>
       <c r="AT30">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU30">
         <v>2.19</v>
@@ -6752,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -6856,7 +6868,7 @@
         <v>106</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7047,7 +7059,7 @@
         <v>107</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7238,7 +7250,7 @@
         <v>108</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>10</v>
@@ -7325,7 +7337,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT34">
         <v>2.4</v>
@@ -7429,7 +7441,7 @@
         <v>109</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7620,7 +7632,7 @@
         <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7707,7 +7719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT36">
         <v>2.25</v>
@@ -7811,7 +7823,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -7901,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU37">
         <v>1.84</v>
@@ -8002,7 +8014,7 @@
         <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8089,7 +8101,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT38">
         <v>0.5</v>
@@ -8193,7 +8205,7 @@
         <v>86</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8384,7 +8396,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8474,7 +8486,7 @@
         <v>1.2</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU40">
         <v>1.85</v>
@@ -8575,7 +8587,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>2</v>
@@ -8856,7 +8868,7 @@
         <v>1.33</v>
       </c>
       <c r="AT42">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU42">
         <v>1.79</v>
@@ -9148,7 +9160,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>11</v>
@@ -9235,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT44">
         <v>1</v>
@@ -9339,7 +9351,7 @@
         <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9530,7 +9542,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9620,7 +9632,7 @@
         <v>0.5</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU46">
         <v>1.77</v>
@@ -9721,7 +9733,7 @@
         <v>119</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -9912,7 +9924,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10103,7 +10115,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>11</v>
@@ -10190,7 +10202,7 @@
         <v>0.33</v>
       </c>
       <c r="AS49">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT49">
         <v>0.25</v>
@@ -10294,7 +10306,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -10485,7 +10497,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10954,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT53">
         <v>0.75</v>
@@ -11058,7 +11070,7 @@
         <v>126</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11631,7 +11643,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -11822,7 +11834,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -11964,6 +11976,579 @@
       </c>
       <c r="BK58">
         <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5002264</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2">
+        <v>44997.75</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>81</v>
+      </c>
+      <c r="P59" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q59">
+        <v>3</v>
+      </c>
+      <c r="R59">
+        <v>5</v>
+      </c>
+      <c r="S59">
+        <v>8</v>
+      </c>
+      <c r="T59">
+        <v>2.3</v>
+      </c>
+      <c r="U59">
+        <v>2.15</v>
+      </c>
+      <c r="V59">
+        <v>4.5</v>
+      </c>
+      <c r="W59">
+        <v>1.37</v>
+      </c>
+      <c r="X59">
+        <v>2.85</v>
+      </c>
+      <c r="Y59">
+        <v>2.7</v>
+      </c>
+      <c r="Z59">
+        <v>1.4</v>
+      </c>
+      <c r="AA59">
+        <v>6.75</v>
+      </c>
+      <c r="AB59">
+        <v>1.09</v>
+      </c>
+      <c r="AC59">
+        <v>1.7</v>
+      </c>
+      <c r="AD59">
+        <v>3.61</v>
+      </c>
+      <c r="AE59">
+        <v>4.05</v>
+      </c>
+      <c r="AF59">
+        <v>1.05</v>
+      </c>
+      <c r="AG59">
+        <v>9.75</v>
+      </c>
+      <c r="AH59">
+        <v>1.28</v>
+      </c>
+      <c r="AI59">
+        <v>3.4</v>
+      </c>
+      <c r="AJ59">
+        <v>1.83</v>
+      </c>
+      <c r="AK59">
+        <v>1.87</v>
+      </c>
+      <c r="AL59">
+        <v>1.82</v>
+      </c>
+      <c r="AM59">
+        <v>1.85</v>
+      </c>
+      <c r="AN59">
+        <v>1.18</v>
+      </c>
+      <c r="AO59">
+        <v>1.26</v>
+      </c>
+      <c r="AP59">
+        <v>2.14</v>
+      </c>
+      <c r="AQ59">
+        <v>1.75</v>
+      </c>
+      <c r="AR59">
+        <v>2</v>
+      </c>
+      <c r="AS59">
+        <v>1.6</v>
+      </c>
+      <c r="AT59">
+        <v>1.75</v>
+      </c>
+      <c r="AU59">
+        <v>1.98</v>
+      </c>
+      <c r="AV59">
+        <v>1.75</v>
+      </c>
+      <c r="AW59">
+        <v>3.73</v>
+      </c>
+      <c r="AX59">
+        <v>1.45</v>
+      </c>
+      <c r="AY59">
+        <v>8.5</v>
+      </c>
+      <c r="AZ59">
+        <v>3.28</v>
+      </c>
+      <c r="BA59">
+        <v>1.36</v>
+      </c>
+      <c r="BB59">
+        <v>1.66</v>
+      </c>
+      <c r="BC59">
+        <v>2.12</v>
+      </c>
+      <c r="BD59">
+        <v>2.88</v>
+      </c>
+      <c r="BE59">
+        <v>4.1</v>
+      </c>
+      <c r="BF59">
+        <v>6</v>
+      </c>
+      <c r="BG59">
+        <v>3</v>
+      </c>
+      <c r="BH59">
+        <v>5</v>
+      </c>
+      <c r="BI59">
+        <v>6</v>
+      </c>
+      <c r="BJ59">
+        <v>11</v>
+      </c>
+      <c r="BK59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5002265</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2">
+        <v>44998.85416666666</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>130</v>
+      </c>
+      <c r="P60" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>7</v>
+      </c>
+      <c r="T60">
+        <v>3.2</v>
+      </c>
+      <c r="U60">
+        <v>2.2</v>
+      </c>
+      <c r="V60">
+        <v>3.25</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60">
+        <v>2.75</v>
+      </c>
+      <c r="Y60">
+        <v>2.75</v>
+      </c>
+      <c r="Z60">
+        <v>1.4</v>
+      </c>
+      <c r="AA60">
+        <v>8</v>
+      </c>
+      <c r="AB60">
+        <v>1.08</v>
+      </c>
+      <c r="AC60">
+        <v>2.65</v>
+      </c>
+      <c r="AD60">
+        <v>3.4</v>
+      </c>
+      <c r="AE60">
+        <v>2.55</v>
+      </c>
+      <c r="AF60">
+        <v>1.05</v>
+      </c>
+      <c r="AG60">
+        <v>9</v>
+      </c>
+      <c r="AH60">
+        <v>1.29</v>
+      </c>
+      <c r="AI60">
+        <v>3.5</v>
+      </c>
+      <c r="AJ60">
+        <v>1.87</v>
+      </c>
+      <c r="AK60">
+        <v>1.9</v>
+      </c>
+      <c r="AL60">
+        <v>1.73</v>
+      </c>
+      <c r="AM60">
+        <v>2</v>
+      </c>
+      <c r="AN60">
+        <v>1.49</v>
+      </c>
+      <c r="AO60">
+        <v>1.28</v>
+      </c>
+      <c r="AP60">
+        <v>1.49</v>
+      </c>
+      <c r="AQ60">
+        <v>1.75</v>
+      </c>
+      <c r="AR60">
+        <v>0.33</v>
+      </c>
+      <c r="AS60">
+        <v>2</v>
+      </c>
+      <c r="AT60">
+        <v>0.25</v>
+      </c>
+      <c r="AU60">
+        <v>1.55</v>
+      </c>
+      <c r="AV60">
+        <v>1.57</v>
+      </c>
+      <c r="AW60">
+        <v>3.12</v>
+      </c>
+      <c r="AX60">
+        <v>1.75</v>
+      </c>
+      <c r="AY60">
+        <v>8</v>
+      </c>
+      <c r="AZ60">
+        <v>2.44</v>
+      </c>
+      <c r="BA60">
+        <v>1.24</v>
+      </c>
+      <c r="BB60">
+        <v>1.47</v>
+      </c>
+      <c r="BC60">
+        <v>1.86</v>
+      </c>
+      <c r="BD60">
+        <v>2.36</v>
+      </c>
+      <c r="BE60">
+        <v>3.2</v>
+      </c>
+      <c r="BF60">
+        <v>9</v>
+      </c>
+      <c r="BG60">
+        <v>3</v>
+      </c>
+      <c r="BH60">
+        <v>9</v>
+      </c>
+      <c r="BI60">
+        <v>8</v>
+      </c>
+      <c r="BJ60">
+        <v>18</v>
+      </c>
+      <c r="BK60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5002269</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>44998.85416666666</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>131</v>
+      </c>
+      <c r="P61" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q61">
+        <v>3</v>
+      </c>
+      <c r="R61">
+        <v>8</v>
+      </c>
+      <c r="S61">
+        <v>11</v>
+      </c>
+      <c r="T61">
+        <v>3.1</v>
+      </c>
+      <c r="U61">
+        <v>2.1</v>
+      </c>
+      <c r="V61">
+        <v>3.6</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>2.63</v>
+      </c>
+      <c r="Y61">
+        <v>3</v>
+      </c>
+      <c r="Z61">
+        <v>1.36</v>
+      </c>
+      <c r="AA61">
+        <v>9</v>
+      </c>
+      <c r="AB61">
+        <v>1.07</v>
+      </c>
+      <c r="AC61">
+        <v>2.35</v>
+      </c>
+      <c r="AD61">
+        <v>3.4</v>
+      </c>
+      <c r="AE61">
+        <v>2.95</v>
+      </c>
+      <c r="AF61">
+        <v>1.06</v>
+      </c>
+      <c r="AG61">
+        <v>8.5</v>
+      </c>
+      <c r="AH61">
+        <v>1.32</v>
+      </c>
+      <c r="AI61">
+        <v>3.1</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>1.78</v>
+      </c>
+      <c r="AL61">
+        <v>1.8</v>
+      </c>
+      <c r="AM61">
+        <v>1.91</v>
+      </c>
+      <c r="AN61">
+        <v>1.4</v>
+      </c>
+      <c r="AO61">
+        <v>1.3</v>
+      </c>
+      <c r="AP61">
+        <v>1.55</v>
+      </c>
+      <c r="AQ61">
+        <v>1.33</v>
+      </c>
+      <c r="AR61">
+        <v>2</v>
+      </c>
+      <c r="AS61">
+        <v>1.25</v>
+      </c>
+      <c r="AT61">
+        <v>1.67</v>
+      </c>
+      <c r="AU61">
+        <v>2.31</v>
+      </c>
+      <c r="AV61">
+        <v>1.57</v>
+      </c>
+      <c r="AW61">
+        <v>3.88</v>
+      </c>
+      <c r="AX61">
+        <v>1.75</v>
+      </c>
+      <c r="AY61">
+        <v>8</v>
+      </c>
+      <c r="AZ61">
+        <v>2.44</v>
+      </c>
+      <c r="BA61">
+        <v>1.24</v>
+      </c>
+      <c r="BB61">
+        <v>1.47</v>
+      </c>
+      <c r="BC61">
+        <v>1.86</v>
+      </c>
+      <c r="BD61">
+        <v>2.36</v>
+      </c>
+      <c r="BE61">
+        <v>3.2</v>
+      </c>
+      <c r="BF61">
+        <v>6</v>
+      </c>
+      <c r="BG61">
+        <v>4</v>
+      </c>
+      <c r="BH61">
+        <v>5</v>
+      </c>
+      <c r="BI61">
+        <v>7</v>
+      </c>
+      <c r="BJ61">
+        <v>11</v>
+      </c>
+      <c r="BK61">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT5" t="n">
         <v>0.8</v>
@@ -1918,7 +1918,7 @@
         <v>0.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>0.75</v>
@@ -2730,7 +2730,7 @@
         <v>2.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU21" t="n">
         <v>1.82</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT23" t="n">
         <v>0.75</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT24" t="n">
         <v>2.4</v>
@@ -5775,7 +5775,7 @@
         <v>2.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.69</v>
@@ -6384,7 +6384,7 @@
         <v>2.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>2.66</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT37" t="n">
         <v>1.75</v>
@@ -8211,7 +8211,7 @@
         <v>1.6</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU38" t="n">
         <v>1.89</v>
@@ -9429,7 +9429,7 @@
         <v>1.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.79</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
         <v>2.25</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.71</v>
@@ -11456,10 +11456,10 @@
         <v>0.67</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.69</v>
@@ -12932,6 +12932,818 @@
       </c>
       <c r="BK61" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>5002279</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45002.79166666666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Ñublense</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Curicó Unido</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['35', '73']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>6</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>5002276</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['10', '23', '50']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>5002272</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45003.75</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>4</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['8', '34', '77']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>6</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>9</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5002275</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45003.75</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['83', '87']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>8</v>
+      </c>
+      <c r="R65" t="n">
+        <v>9</v>
+      </c>
+      <c r="S65" t="n">
+        <v>17</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -358,12 +358,12 @@
     <t>['19', '24', '36', '57', '90+6']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
     <t>['8', '45+2']</t>
   </si>
   <si>
-    <t>['21']</t>
-  </si>
-  <si>
     <t>['24', '90+6']</t>
   </si>
   <si>
@@ -376,12 +376,12 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['22', '84', '90+7']</t>
+  </si>
+  <si>
     <t>['45+9', '90+8']</t>
   </si>
   <si>
-    <t>['22', '84', '90+7']</t>
-  </si>
-  <si>
     <t>['45+4']</t>
   </si>
   <si>
@@ -406,12 +406,12 @@
     <t>['55', '78']</t>
   </si>
   <si>
+    <t>['24', '35']</t>
+  </si>
+  <si>
     <t>['22', '56']</t>
   </si>
   <si>
-    <t>['24', '35']</t>
-  </si>
-  <si>
     <t>['43']</t>
   </si>
   <si>
@@ -421,12 +421,12 @@
     <t>['8', '34', '77']</t>
   </si>
   <si>
+    <t>['8', '52']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
-    <t>['8', '52']</t>
-  </si>
-  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -472,12 +472,12 @@
     <t>['45+17']</t>
   </si>
   <si>
+    <t>['17', '67', '90+4']</t>
+  </si>
+  <si>
     <t>['49', '79']</t>
   </si>
   <si>
-    <t>['17', '67', '90+4']</t>
-  </si>
-  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -541,10 +541,10 @@
     <t>['2', '38']</t>
   </si>
   <si>
+    <t>['15', '90+1']</t>
+  </si>
+  <si>
     <t>['72']</t>
-  </si>
-  <si>
-    <t>['15', '90+1']</t>
   </si>
   <si>
     <t>['35', '73']</t>
@@ -5698,7 +5698,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>5002230</v>
+        <v>5002227</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -5713,52 +5713,52 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O26" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="P26" t="s">
         <v>152</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="U26">
         <v>2.2</v>
       </c>
       <c r="V26">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="W26">
         <v>1.36</v>
@@ -5779,13 +5779,13 @@
         <v>1.1</v>
       </c>
       <c r="AC26">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="AD26">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="AE26">
-        <v>2.71</v>
+        <v>2.46</v>
       </c>
       <c r="AF26">
         <v>1.05</v>
@@ -5794,16 +5794,16 @@
         <v>9</v>
       </c>
       <c r="AH26">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AI26">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ26">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="AK26">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="AL26">
         <v>1.67</v>
@@ -5812,76 +5812,76 @@
         <v>2.1</v>
       </c>
       <c r="AN26">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AO26">
         <v>1.3</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AQ26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AT26">
         <v>1</v>
       </c>
       <c r="AU26">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AV26">
-        <v>1.63</v>
+        <v>2.36</v>
       </c>
       <c r="AW26">
-        <v>3.32</v>
+        <v>4.1</v>
       </c>
       <c r="AX26">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AY26">
         <v>7.5</v>
       </c>
       <c r="AZ26">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BA26">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BB26">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="BC26">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="BD26">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="BE26">
-        <v>3.94</v>
+        <v>3.64</v>
       </c>
       <c r="BF26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG26">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BI26">
         <v>5</v>
       </c>
       <c r="BJ26">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="BK26">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:63">
@@ -5889,7 +5889,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5002227</v>
+        <v>5002230</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
@@ -5904,52 +5904,52 @@
         <v>4</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O27" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="P27" t="s">
         <v>153</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T27">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <v>2.2</v>
       </c>
       <c r="V27">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="W27">
         <v>1.36</v>
@@ -5970,13 +5970,13 @@
         <v>1.1</v>
       </c>
       <c r="AC27">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="AD27">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="AE27">
-        <v>2.46</v>
+        <v>2.71</v>
       </c>
       <c r="AF27">
         <v>1.05</v>
@@ -5985,16 +5985,16 @@
         <v>9</v>
       </c>
       <c r="AH27">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AI27">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ27">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AK27">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="AL27">
         <v>1.67</v>
@@ -6003,76 +6003,76 @@
         <v>2.1</v>
       </c>
       <c r="AN27">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="AO27">
         <v>1.3</v>
       </c>
       <c r="AP27">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>1</v>
       </c>
       <c r="AU27">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="AV27">
-        <v>2.36</v>
+        <v>1.63</v>
       </c>
       <c r="AW27">
-        <v>4.1</v>
+        <v>3.32</v>
       </c>
       <c r="AX27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AY27">
         <v>7.5</v>
       </c>
       <c r="AZ27">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BA27">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BB27">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="BC27">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="BD27">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="BE27">
-        <v>3.64</v>
+        <v>3.94</v>
       </c>
       <c r="BF27">
+        <v>8</v>
+      </c>
+      <c r="BG27">
         <v>5</v>
       </c>
-      <c r="BG27">
-        <v>9</v>
-      </c>
       <c r="BH27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BI27">
         <v>5</v>
       </c>
       <c r="BJ27">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BK27">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:63">
@@ -8754,7 +8754,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>5002240</v>
+        <v>5002246</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
@@ -8769,175 +8769,175 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O42" t="s">
         <v>114</v>
       </c>
       <c r="P42" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
         <v>6</v>
       </c>
-      <c r="S42">
-        <v>7</v>
-      </c>
       <c r="T42">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="U42">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V42">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="W42">
+        <v>1.4</v>
+      </c>
+      <c r="X42">
+        <v>2.7</v>
+      </c>
+      <c r="Y42">
+        <v>2.8</v>
+      </c>
+      <c r="Z42">
         <v>1.37</v>
       </c>
-      <c r="X42">
-        <v>2.85</v>
-      </c>
-      <c r="Y42">
-        <v>2.65</v>
-      </c>
-      <c r="Z42">
-        <v>1.41</v>
-      </c>
       <c r="AA42">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="AB42">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AC42">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="AD42">
         <v>3.25</v>
       </c>
       <c r="AE42">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AF42">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AG42">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AH42">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AI42">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AJ42">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="AK42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AL42">
+        <v>1.8</v>
+      </c>
+      <c r="AM42">
+        <v>1.88</v>
+      </c>
+      <c r="AN42">
+        <v>1.31</v>
+      </c>
+      <c r="AO42">
+        <v>1.31</v>
+      </c>
+      <c r="AP42">
+        <v>1.68</v>
+      </c>
+      <c r="AQ42">
+        <v>3</v>
+      </c>
+      <c r="AR42">
+        <v>1.33</v>
+      </c>
+      <c r="AS42">
+        <v>2</v>
+      </c>
+      <c r="AT42">
+        <v>1</v>
+      </c>
+      <c r="AU42">
+        <v>2.16</v>
+      </c>
+      <c r="AV42">
+        <v>0.99</v>
+      </c>
+      <c r="AW42">
+        <v>3.15</v>
+      </c>
+      <c r="AX42">
+        <v>1.91</v>
+      </c>
+      <c r="AY42">
+        <v>7.5</v>
+      </c>
+      <c r="AZ42">
+        <v>2.2</v>
+      </c>
+      <c r="BA42">
+        <v>1.36</v>
+      </c>
+      <c r="BB42">
         <v>1.66</v>
       </c>
-      <c r="AM42">
-        <v>2.05</v>
-      </c>
-      <c r="AN42">
-        <v>1.43</v>
-      </c>
-      <c r="AO42">
-        <v>1.29</v>
-      </c>
-      <c r="AP42">
-        <v>1.53</v>
-      </c>
-      <c r="AQ42">
-        <v>0.5</v>
-      </c>
-      <c r="AR42">
-        <v>0.5</v>
-      </c>
-      <c r="AS42">
-        <v>1.25</v>
-      </c>
-      <c r="AT42">
-        <v>0.25</v>
-      </c>
-      <c r="AU42">
-        <v>1.79</v>
-      </c>
-      <c r="AV42">
-        <v>1.61</v>
-      </c>
-      <c r="AW42">
-        <v>3.4</v>
-      </c>
-      <c r="AX42">
-        <v>1.95</v>
-      </c>
-      <c r="AY42">
-        <v>8</v>
-      </c>
-      <c r="AZ42">
-        <v>2.1</v>
-      </c>
-      <c r="BA42">
-        <v>1.26</v>
-      </c>
-      <c r="BB42">
-        <v>1.5</v>
-      </c>
       <c r="BC42">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="BD42">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BE42">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="BF42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI42">
         <v>5</v>
       </c>
       <c r="BJ42">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK42">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:63">
@@ -8945,7 +8945,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5002246</v>
+        <v>5002240</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -8960,175 +8960,175 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H43" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" t="s">
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="Q43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T43">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="U43">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V43">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="W43">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X43">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="Y43">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="Z43">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AA43">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="AB43">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AC43">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AD43">
         <v>3.25</v>
       </c>
       <c r="AE43">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AF43">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG43">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AH43">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AI43">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AJ43">
+        <v>1.86</v>
+      </c>
+      <c r="AK43">
+        <v>2</v>
+      </c>
+      <c r="AL43">
+        <v>1.66</v>
+      </c>
+      <c r="AM43">
+        <v>2.05</v>
+      </c>
+      <c r="AN43">
+        <v>1.43</v>
+      </c>
+      <c r="AO43">
+        <v>1.29</v>
+      </c>
+      <c r="AP43">
+        <v>1.53</v>
+      </c>
+      <c r="AQ43">
+        <v>0.5</v>
+      </c>
+      <c r="AR43">
+        <v>0.5</v>
+      </c>
+      <c r="AS43">
+        <v>1.25</v>
+      </c>
+      <c r="AT43">
+        <v>0.25</v>
+      </c>
+      <c r="AU43">
+        <v>1.79</v>
+      </c>
+      <c r="AV43">
+        <v>1.61</v>
+      </c>
+      <c r="AW43">
+        <v>3.4</v>
+      </c>
+      <c r="AX43">
+        <v>1.95</v>
+      </c>
+      <c r="AY43">
+        <v>8</v>
+      </c>
+      <c r="AZ43">
+        <v>2.1</v>
+      </c>
+      <c r="BA43">
+        <v>1.26</v>
+      </c>
+      <c r="BB43">
+        <v>1.5</v>
+      </c>
+      <c r="BC43">
         <v>1.98</v>
       </c>
-      <c r="AK43">
-        <v>1.8</v>
-      </c>
-      <c r="AL43">
-        <v>1.8</v>
-      </c>
-      <c r="AM43">
-        <v>1.88</v>
-      </c>
-      <c r="AN43">
-        <v>1.31</v>
-      </c>
-      <c r="AO43">
-        <v>1.31</v>
-      </c>
-      <c r="AP43">
-        <v>1.68</v>
-      </c>
-      <c r="AQ43">
-        <v>3</v>
-      </c>
-      <c r="AR43">
-        <v>1.33</v>
-      </c>
-      <c r="AS43">
-        <v>2</v>
-      </c>
-      <c r="AT43">
-        <v>1</v>
-      </c>
-      <c r="AU43">
-        <v>2.16</v>
-      </c>
-      <c r="AV43">
-        <v>0.99</v>
-      </c>
-      <c r="AW43">
-        <v>3.15</v>
-      </c>
-      <c r="AX43">
-        <v>1.91</v>
-      </c>
-      <c r="AY43">
-        <v>7.5</v>
-      </c>
-      <c r="AZ43">
-        <v>2.2</v>
-      </c>
-      <c r="BA43">
-        <v>1.36</v>
-      </c>
-      <c r="BB43">
-        <v>1.66</v>
-      </c>
-      <c r="BC43">
-        <v>2.15</v>
-      </c>
       <c r="BD43">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BE43">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="BF43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI43">
         <v>5</v>
       </c>
       <c r="BJ43">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK43">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:63">
@@ -9900,7 +9900,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>5002263</v>
+        <v>5002252</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -9915,172 +9915,172 @@
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H48" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>1</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O48" t="s">
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q48">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S48">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T48">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="U48">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V48">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="W48">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X48">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="Y48">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z48">
+        <v>1.38</v>
+      </c>
+      <c r="AA48">
+        <v>7.25</v>
+      </c>
+      <c r="AB48">
+        <v>1.08</v>
+      </c>
+      <c r="AC48">
+        <v>2.65</v>
+      </c>
+      <c r="AD48">
+        <v>3.1</v>
+      </c>
+      <c r="AE48">
+        <v>2.4</v>
+      </c>
+      <c r="AF48">
+        <v>1.06</v>
+      </c>
+      <c r="AG48">
+        <v>8</v>
+      </c>
+      <c r="AH48">
+        <v>1.3</v>
+      </c>
+      <c r="AI48">
+        <v>3.4</v>
+      </c>
+      <c r="AJ48">
+        <v>1.83</v>
+      </c>
+      <c r="AK48">
+        <v>1.8</v>
+      </c>
+      <c r="AL48">
+        <v>1.75</v>
+      </c>
+      <c r="AM48">
+        <v>1.95</v>
+      </c>
+      <c r="AN48">
+        <v>1.47</v>
+      </c>
+      <c r="AO48">
+        <v>1.31</v>
+      </c>
+      <c r="AP48">
+        <v>1.47</v>
+      </c>
+      <c r="AQ48">
+        <v>1.33</v>
+      </c>
+      <c r="AR48">
+        <v>0.33</v>
+      </c>
+      <c r="AS48">
+        <v>2</v>
+      </c>
+      <c r="AT48">
+        <v>0.4</v>
+      </c>
+      <c r="AU48">
+        <v>1.48</v>
+      </c>
+      <c r="AV48">
         <v>1.43</v>
       </c>
-      <c r="AA48">
-        <v>6.5</v>
-      </c>
-      <c r="AB48">
-        <v>1.09</v>
-      </c>
-      <c r="AC48">
-        <v>2</v>
-      </c>
-      <c r="AD48">
-        <v>3.25</v>
-      </c>
-      <c r="AE48">
-        <v>3.3</v>
-      </c>
-      <c r="AF48">
-        <v>1.05</v>
-      </c>
-      <c r="AG48">
-        <v>9</v>
-      </c>
-      <c r="AH48">
-        <v>1.29</v>
-      </c>
-      <c r="AI48">
-        <v>3.5</v>
-      </c>
-      <c r="AJ48">
-        <v>1.75</v>
-      </c>
-      <c r="AK48">
-        <v>1.87</v>
-      </c>
-      <c r="AL48">
-        <v>1.68</v>
-      </c>
-      <c r="AM48">
-        <v>2.05</v>
-      </c>
-      <c r="AN48">
-        <v>1.29</v>
-      </c>
-      <c r="AO48">
-        <v>1.29</v>
-      </c>
-      <c r="AP48">
-        <v>1.73</v>
-      </c>
-      <c r="AQ48">
-        <v>1.67</v>
-      </c>
-      <c r="AR48">
-        <v>3</v>
-      </c>
-      <c r="AS48">
-        <v>2</v>
-      </c>
-      <c r="AT48">
-        <v>2.4</v>
-      </c>
-      <c r="AU48">
-        <v>1.87</v>
-      </c>
-      <c r="AV48">
-        <v>1.34</v>
-      </c>
       <c r="AW48">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="AX48">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AY48">
         <v>8</v>
       </c>
       <c r="AZ48">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
       <c r="BA48">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BB48">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="BC48">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="BD48">
-        <v>2.7</v>
+        <v>2.47</v>
       </c>
       <c r="BE48">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="BF48">
         <v>7</v>
       </c>
       <c r="BG48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH48">
+        <v>7</v>
+      </c>
+      <c r="BI48">
         <v>4</v>
       </c>
-      <c r="BI48">
-        <v>5</v>
-      </c>
       <c r="BJ48">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK48">
         <v>8</v>
@@ -10091,7 +10091,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>5002252</v>
+        <v>5002263</v>
       </c>
       <c r="C49" t="s">
         <v>63</v>
@@ -10106,172 +10106,172 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
       <c r="N49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O49" t="s">
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q49">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S49">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T49">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="U49">
+        <v>2.1</v>
+      </c>
+      <c r="V49">
+        <v>3.8</v>
+      </c>
+      <c r="W49">
+        <v>1.37</v>
+      </c>
+      <c r="X49">
+        <v>2.85</v>
+      </c>
+      <c r="Y49">
+        <v>2.6</v>
+      </c>
+      <c r="Z49">
+        <v>1.43</v>
+      </c>
+      <c r="AA49">
+        <v>6.5</v>
+      </c>
+      <c r="AB49">
+        <v>1.09</v>
+      </c>
+      <c r="AC49">
+        <v>2</v>
+      </c>
+      <c r="AD49">
+        <v>3.25</v>
+      </c>
+      <c r="AE49">
+        <v>3.3</v>
+      </c>
+      <c r="AF49">
+        <v>1.05</v>
+      </c>
+      <c r="AG49">
+        <v>9</v>
+      </c>
+      <c r="AH49">
+        <v>1.29</v>
+      </c>
+      <c r="AI49">
+        <v>3.5</v>
+      </c>
+      <c r="AJ49">
+        <v>1.75</v>
+      </c>
+      <c r="AK49">
+        <v>1.87</v>
+      </c>
+      <c r="AL49">
+        <v>1.68</v>
+      </c>
+      <c r="AM49">
         <v>2.05</v>
       </c>
-      <c r="V49">
-        <v>3.1</v>
-      </c>
-      <c r="W49">
-        <v>1.39</v>
-      </c>
-      <c r="X49">
-        <v>2.75</v>
-      </c>
-      <c r="Y49">
-        <v>2.8</v>
-      </c>
-      <c r="Z49">
-        <v>1.38</v>
-      </c>
-      <c r="AA49">
-        <v>7.25</v>
-      </c>
-      <c r="AB49">
-        <v>1.08</v>
-      </c>
-      <c r="AC49">
-        <v>2.65</v>
-      </c>
-      <c r="AD49">
-        <v>3.1</v>
-      </c>
-      <c r="AE49">
+      <c r="AN49">
+        <v>1.29</v>
+      </c>
+      <c r="AO49">
+        <v>1.29</v>
+      </c>
+      <c r="AP49">
+        <v>1.73</v>
+      </c>
+      <c r="AQ49">
+        <v>1.67</v>
+      </c>
+      <c r="AR49">
+        <v>3</v>
+      </c>
+      <c r="AS49">
+        <v>2</v>
+      </c>
+      <c r="AT49">
         <v>2.4</v>
       </c>
-      <c r="AF49">
-        <v>1.06</v>
-      </c>
-      <c r="AG49">
-        <v>8</v>
-      </c>
-      <c r="AH49">
-        <v>1.3</v>
-      </c>
-      <c r="AI49">
-        <v>3.4</v>
-      </c>
-      <c r="AJ49">
-        <v>1.83</v>
-      </c>
-      <c r="AK49">
-        <v>1.8</v>
-      </c>
-      <c r="AL49">
-        <v>1.75</v>
-      </c>
-      <c r="AM49">
-        <v>1.95</v>
-      </c>
-      <c r="AN49">
-        <v>1.47</v>
-      </c>
-      <c r="AO49">
-        <v>1.31</v>
-      </c>
-      <c r="AP49">
-        <v>1.47</v>
-      </c>
-      <c r="AQ49">
-        <v>1.33</v>
-      </c>
-      <c r="AR49">
-        <v>0.33</v>
-      </c>
-      <c r="AS49">
-        <v>2</v>
-      </c>
-      <c r="AT49">
-        <v>0.4</v>
-      </c>
       <c r="AU49">
-        <v>1.48</v>
+        <v>1.87</v>
       </c>
       <c r="AV49">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="AW49">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="AX49">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AY49">
         <v>8</v>
       </c>
       <c r="AZ49">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="BA49">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="BB49">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="BC49">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BD49">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="BE49">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="BF49">
         <v>7</v>
       </c>
       <c r="BG49">
+        <v>3</v>
+      </c>
+      <c r="BH49">
         <v>4</v>
       </c>
-      <c r="BH49">
-        <v>7</v>
-      </c>
       <c r="BI49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ49">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK49">
         <v>8</v>
@@ -12192,7 +12192,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>5002265</v>
+        <v>5002269</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -12207,28 +12207,28 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L60">
         <v>2</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O60" t="s">
         <v>130</v>
@@ -12237,103 +12237,103 @@
         <v>175</v>
       </c>
       <c r="Q60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S60">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T60">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U60">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V60">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="W60">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X60">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z60">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB60">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC60">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="AD60">
         <v>3.4</v>
       </c>
       <c r="AE60">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="AF60">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG60">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH60">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AI60">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AJ60">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AK60">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AL60">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AM60">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AN60">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AO60">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP60">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR60">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AT60">
-        <v>0.25</v>
+        <v>1.67</v>
       </c>
       <c r="AU60">
-        <v>1.55</v>
+        <v>2.31</v>
       </c>
       <c r="AV60">
         <v>1.57</v>
       </c>
       <c r="AW60">
-        <v>3.12</v>
+        <v>3.88</v>
       </c>
       <c r="AX60">
         <v>1.75</v>
@@ -12360,19 +12360,19 @@
         <v>3.2</v>
       </c>
       <c r="BF60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH60">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ60">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BK60">
         <v>11</v>
@@ -12383,7 +12383,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>5002269</v>
+        <v>5002265</v>
       </c>
       <c r="C61" t="s">
         <v>63</v>
@@ -12398,28 +12398,28 @@
         <v>8</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61">
         <v>2</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O61" t="s">
         <v>131</v>
@@ -12428,103 +12428,103 @@
         <v>176</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>7</v>
+      </c>
+      <c r="T61">
+        <v>3.2</v>
+      </c>
+      <c r="U61">
+        <v>2.2</v>
+      </c>
+      <c r="V61">
+        <v>3.25</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61">
+        <v>2.75</v>
+      </c>
+      <c r="Y61">
+        <v>2.75</v>
+      </c>
+      <c r="Z61">
+        <v>1.4</v>
+      </c>
+      <c r="AA61">
         <v>8</v>
       </c>
-      <c r="S61">
-        <v>11</v>
-      </c>
-      <c r="T61">
-        <v>3.1</v>
-      </c>
-      <c r="U61">
-        <v>2.1</v>
-      </c>
-      <c r="V61">
-        <v>3.6</v>
-      </c>
-      <c r="W61">
-        <v>1.44</v>
-      </c>
-      <c r="X61">
-        <v>2.63</v>
-      </c>
-      <c r="Y61">
-        <v>3</v>
-      </c>
-      <c r="Z61">
-        <v>1.36</v>
-      </c>
-      <c r="AA61">
-        <v>9</v>
-      </c>
       <c r="AB61">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC61">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="AD61">
         <v>3.4</v>
       </c>
       <c r="AE61">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="AF61">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG61">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH61">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AI61">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AJ61">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AK61">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AL61">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AM61">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AN61">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AO61">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP61">
+        <v>1.49</v>
+      </c>
+      <c r="AQ61">
+        <v>1.75</v>
+      </c>
+      <c r="AR61">
+        <v>0.33</v>
+      </c>
+      <c r="AS61">
+        <v>2</v>
+      </c>
+      <c r="AT61">
+        <v>0.25</v>
+      </c>
+      <c r="AU61">
         <v>1.55</v>
-      </c>
-      <c r="AQ61">
-        <v>1.33</v>
-      </c>
-      <c r="AR61">
-        <v>2</v>
-      </c>
-      <c r="AS61">
-        <v>1.25</v>
-      </c>
-      <c r="AT61">
-        <v>1.67</v>
-      </c>
-      <c r="AU61">
-        <v>2.31</v>
       </c>
       <c r="AV61">
         <v>1.57</v>
       </c>
       <c r="AW61">
-        <v>3.88</v>
+        <v>3.12</v>
       </c>
       <c r="AX61">
         <v>1.75</v>
@@ -12551,19 +12551,19 @@
         <v>3.2</v>
       </c>
       <c r="BF61">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ61">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BK61">
         <v>11</v>
@@ -13720,7 +13720,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>5002273</v>
+        <v>5002278</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
@@ -13735,25 +13735,25 @@
         <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H68" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <v>2</v>
@@ -13762,79 +13762,79 @@
         <v>135</v>
       </c>
       <c r="P68" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="Q68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T68">
+        <v>3</v>
+      </c>
+      <c r="U68">
+        <v>2.2</v>
+      </c>
+      <c r="V68">
+        <v>3</v>
+      </c>
+      <c r="W68">
+        <v>1.33</v>
+      </c>
+      <c r="X68">
+        <v>3.25</v>
+      </c>
+      <c r="Y68">
+        <v>2.5</v>
+      </c>
+      <c r="Z68">
+        <v>1.5</v>
+      </c>
+      <c r="AA68">
+        <v>5.5</v>
+      </c>
+      <c r="AB68">
+        <v>1.12</v>
+      </c>
+      <c r="AC68">
+        <v>2.7</v>
+      </c>
+      <c r="AD68">
         <v>3.3</v>
       </c>
-      <c r="U68">
-        <v>2.3</v>
-      </c>
-      <c r="V68">
-        <v>2.6</v>
-      </c>
-      <c r="W68">
-        <v>1.3</v>
-      </c>
-      <c r="X68">
-        <v>3.4</v>
-      </c>
-      <c r="Y68">
-        <v>2.38</v>
-      </c>
-      <c r="Z68">
-        <v>1.53</v>
-      </c>
-      <c r="AA68">
-        <v>5</v>
-      </c>
-      <c r="AB68">
-        <v>1.14</v>
-      </c>
-      <c r="AC68">
-        <v>2.65</v>
-      </c>
-      <c r="AD68">
-        <v>3.6</v>
-      </c>
       <c r="AE68">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="AF68">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH68">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI68">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ68">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="AK68">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AL68">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AM68">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AN68">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AO68">
         <v>1.3</v>
@@ -13843,67 +13843,67 @@
         <v>1.4</v>
       </c>
       <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
         <v>1.33</v>
       </c>
-      <c r="AR68">
-        <v>2.25</v>
-      </c>
       <c r="AS68">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU68">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AV68">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="AW68">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="AX68">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AY68">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="AZ68">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BA68">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BB68">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BC68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BD68">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BE68">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="BF68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG68">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH68">
+        <v>1</v>
+      </c>
+      <c r="BI68">
         <v>4</v>
       </c>
-      <c r="BI68">
-        <v>9</v>
-      </c>
       <c r="BJ68">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BK68">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:63">
@@ -13911,7 +13911,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>5002278</v>
+        <v>5002273</v>
       </c>
       <c r="C69" t="s">
         <v>63</v>
@@ -13926,25 +13926,25 @@
         <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H69" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <v>2</v>
@@ -13953,79 +13953,79 @@
         <v>136</v>
       </c>
       <c r="P69" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="Q69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="U69">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V69">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="W69">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X69">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y69">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z69">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA69">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB69">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AC69">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AD69">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AE69">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="AF69">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH69">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI69">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AJ69">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="AK69">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AL69">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AM69">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AN69">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AO69">
         <v>1.3</v>
@@ -14034,67 +14034,67 @@
         <v>1.4</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
-        <v>1.33</v>
+        <v>2.25</v>
       </c>
       <c r="AS69">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU69">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AV69">
-        <v>2.15</v>
+        <v>1.69</v>
       </c>
       <c r="AW69">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="AX69">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AY69">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="AZ69">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BA69">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BB69">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BC69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BD69">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BE69">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="BF69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI69">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BJ69">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BK69">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK69"/>
+  <dimension ref="A1:BK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT4" t="n">
         <v>0.4</v>
@@ -1918,7 +1918,7 @@
         <v>0.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0.25</v>
@@ -3745,7 +3745,7 @@
         <v>0.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT22" t="n">
         <v>1.75</v>
@@ -6181,7 +6181,7 @@
         <v>1.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU28" t="n">
         <v>1.95</v>
@@ -7196,7 +7196,7 @@
         <v>1.4</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU33" t="n">
         <v>1.58</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT39" t="n">
         <v>0.8</v>
@@ -9835,7 +9835,7 @@
         <v>0.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU46" t="n">
         <v>1.77</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT49" t="n">
         <v>2.4</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
         <v>2</v>
@@ -11256,7 +11256,7 @@
         <v>1.6</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU53" t="n">
         <v>2.11</v>
@@ -12677,7 +12677,7 @@
         <v>1.25</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU60" t="n">
         <v>2.31</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13283,7 +13283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>0.4</v>
@@ -13489,7 +13489,7 @@
         <v>2.6</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.75</v>
@@ -14556,6 +14556,615 @@
       </c>
       <c r="BK69" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5002229</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45016.79166666666</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Ñublense</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['32', '70']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>6</v>
+      </c>
+      <c r="R70" t="n">
+        <v>8</v>
+      </c>
+      <c r="S70" t="n">
+        <v>14</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5002223</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45017.5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>6</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>10</v>
+      </c>
+      <c r="T71" t="n">
+        <v>4</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5002268</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45017.72916666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['13', '27', '90+2']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['42', '67']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK72"/>
+  <dimension ref="A1:BK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>1.6</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU13" t="n">
         <v>2.06</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT15" t="n">
         <v>0.25</v>
@@ -5572,7 +5572,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU25" t="n">
         <v>2.07</v>
@@ -12271,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.81</v>
@@ -13283,7 +13283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT63" t="n">
         <v>0.4</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT71" t="n">
         <v>1.5</v>
@@ -15165,6 +15165,209 @@
       </c>
       <c r="BK72" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5002243</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45021.83333333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>6</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Unión Española</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>8</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -5631,7 +5631,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>5002227</v>
+        <v>5002230</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -5651,59 +5651,59 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Copiapó</t>
+          <t>Unión La Calera</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Curicó Unido</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['84', '90+1', '90+6']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['49', '79']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" t="n">
         <v>4</v>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>['29']</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>['17', '67', '90+4']</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T26" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
         <v>2.2</v>
       </c>
       <c r="V26" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="W26" t="n">
         <v>1.36</v>
@@ -5724,13 +5724,13 @@
         <v>1.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="AD26" t="n">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>2.46</v>
+        <v>2.71</v>
       </c>
       <c r="AF26" t="n">
         <v>1.05</v>
@@ -5739,16 +5739,16 @@
         <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AI26" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AK26" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="AL26" t="n">
         <v>1.67</v>
@@ -5757,76 +5757,76 @@
         <v>2.1</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="AO26" t="n">
         <v>1.3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="AV26" t="n">
-        <v>2.36</v>
+        <v>1.63</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.1</v>
+        <v>3.32</v>
       </c>
       <c r="AX26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AY26" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BA26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BB26" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="BC26" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="BD26" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="BE26" t="n">
-        <v>3.64</v>
+        <v>3.94</v>
       </c>
       <c r="BF26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG26" t="n">
         <v>5</v>
       </c>
-      <c r="BG26" t="n">
-        <v>9</v>
-      </c>
       <c r="BH26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BI26" t="n">
         <v>5</v>
       </c>
       <c r="BJ26" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BK26" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -5834,7 +5834,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>5002230</v>
+        <v>5002227</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -5854,59 +5854,59 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Unión La Calera</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Curicó Unido</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['17', '67', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
         <v>5</v>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>['84', '90+1', '90+6']</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>['49', '79']</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>7</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>11</v>
-      </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="U27" t="n">
         <v>2.2</v>
       </c>
       <c r="V27" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="W27" t="n">
         <v>1.36</v>
@@ -5927,13 +5927,13 @@
         <v>1.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="AD27" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="AE27" t="n">
-        <v>2.71</v>
+        <v>2.46</v>
       </c>
       <c r="AF27" t="n">
         <v>1.05</v>
@@ -5942,16 +5942,16 @@
         <v>9</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AI27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="AK27" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="AL27" t="n">
         <v>1.67</v>
@@ -5960,76 +5960,76 @@
         <v>2.1</v>
       </c>
       <c r="AN27" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="AO27" t="n">
         <v>1.3</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.63</v>
+        <v>2.36</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.32</v>
+        <v>4.1</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AY27" t="n">
         <v>7.5</v>
       </c>
       <c r="AZ27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="BC27" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="BD27" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="BE27" t="n">
-        <v>3.94</v>
+        <v>3.64</v>
       </c>
       <c r="BF27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG27" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BI27" t="n">
         <v>5</v>
       </c>
       <c r="BJ27" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="BK27" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -10097,7 +10097,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>5002252</v>
+        <v>5002263</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -10117,179 +10117,179 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['45+9', '90+8']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
         <v>4</v>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>['22', '84', '90+7']</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>['2']</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>11</v>
-      </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S48" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T48" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="U48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM48" t="n">
         <v>2.05</v>
       </c>
-      <c r="V48" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X48" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE48" t="n">
+      <c r="AN48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT48" t="n">
         <v>2.4</v>
       </c>
-      <c r="AF48" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>0.4</v>
-      </c>
       <c r="AU48" t="n">
-        <v>1.48</v>
+        <v>1.87</v>
       </c>
       <c r="AV48" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="AW48" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="AX48" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AY48" t="n">
         <v>8</v>
       </c>
       <c r="AZ48" t="n">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="BA48" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="BB48" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="BC48" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BD48" t="n">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="BE48" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="BF48" t="n">
         <v>7</v>
       </c>
       <c r="BG48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH48" t="n">
         <v>4</v>
       </c>
-      <c r="BH48" t="n">
-        <v>7</v>
-      </c>
       <c r="BI48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ48" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK48" t="n">
         <v>8</v>
@@ -10300,7 +10300,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>5002263</v>
+        <v>5002252</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -10320,179 +10320,179 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>['45+9', '90+8']</t>
+          <t>['22', '84', '90+7']</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T49" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="U49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V49" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="W49" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X49" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Z49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV49" t="n">
         <v>1.43</v>
       </c>
-      <c r="AA49" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>1.34</v>
-      </c>
       <c r="AW49" t="n">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="AX49" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AY49" t="n">
         <v>8</v>
       </c>
       <c r="AZ49" t="n">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
       <c r="BA49" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BB49" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="BC49" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="BD49" t="n">
-        <v>2.7</v>
+        <v>2.47</v>
       </c>
       <c r="BE49" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="BF49" t="n">
         <v>7</v>
       </c>
       <c r="BG49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI49" t="n">
         <v>4</v>
       </c>
-      <c r="BI49" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ49" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK49" t="n">
         <v>8</v>
@@ -12533,7 +12533,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>5002269</v>
+        <v>5002265</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -12553,140 +12553,140 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Audax Italiano</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
         <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['24', '35']</t>
+          <t>['22', '56']</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>['15', '90+1']</t>
+          <t>['72']</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>7</v>
+      </c>
+      <c r="T60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA60" t="n">
         <v>8</v>
       </c>
-      <c r="S60" t="n">
-        <v>11</v>
-      </c>
-      <c r="T60" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U60" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V60" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W60" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X60" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>9</v>
-      </c>
       <c r="AB60" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC60" t="n">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="AD60" t="n">
         <v>3.4</v>
       </c>
       <c r="AE60" t="n">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="AF60" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG60" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH60" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AI60" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AJ60" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AK60" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AL60" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AM60" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AN60" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AO60" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP60" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU60" t="n">
         <v>1.55</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>2.31</v>
       </c>
       <c r="AV60" t="n">
         <v>1.57</v>
       </c>
       <c r="AW60" t="n">
-        <v>3.88</v>
+        <v>3.12</v>
       </c>
       <c r="AX60" t="n">
         <v>1.75</v>
@@ -12713,19 +12713,19 @@
         <v>3.2</v>
       </c>
       <c r="BF60" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH60" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ60" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BK60" t="n">
         <v>11</v>
@@ -12736,7 +12736,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>5002265</v>
+        <v>5002269</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -12756,140 +12756,140 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Audax Italiano</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61" t="n">
         <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['22', '56']</t>
+          <t>['24', '35']</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>['72']</t>
+          <t>['15', '90+1']</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S61" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U61" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V61" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="W61" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X61" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y61" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB61" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC61" t="n">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="AD61" t="n">
         <v>3.4</v>
       </c>
       <c r="AE61" t="n">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="AF61" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AI61" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AK61" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AL61" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AM61" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AN61" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AO61" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR61" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AU61" t="n">
-        <v>1.55</v>
+        <v>2.31</v>
       </c>
       <c r="AV61" t="n">
         <v>1.57</v>
       </c>
       <c r="AW61" t="n">
-        <v>3.12</v>
+        <v>3.88</v>
       </c>
       <c r="AX61" t="n">
         <v>1.75</v>
@@ -12916,19 +12916,19 @@
         <v>3.2</v>
       </c>
       <c r="BF61" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH61" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BI61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ61" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BK61" t="n">
         <v>11</v>
@@ -13345,7 +13345,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>5002272</v>
+        <v>5002275</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -13365,182 +13365,182 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Cobresal</t>
+          <t>O'Higgins</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Colo-Colo</t>
+          <t>Coquimbo Unido</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>['8', '34', '77']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>['90+5']</t>
+          <t>['83', '87']</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R64" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S64" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="T64" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM64" t="n">
         <v>2.05</v>
       </c>
-      <c r="V64" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="W64" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X64" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH64" t="n">
+      <c r="AN64" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO64" t="n">
         <v>1.3</v>
       </c>
-      <c r="AI64" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AP64" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="AT64" t="n">
         <v>1.5</v>
       </c>
       <c r="AU64" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="AV64" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AW64" t="n">
-        <v>3.17</v>
+        <v>3.26</v>
       </c>
       <c r="AX64" t="n">
-        <v>2.3</v>
+        <v>1.74</v>
       </c>
       <c r="AY64" t="n">
         <v>5.75</v>
       </c>
       <c r="AZ64" t="n">
-        <v>1.76</v>
+        <v>2.35</v>
       </c>
       <c r="BA64" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BB64" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BC64" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BD64" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BE64" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="BF64" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BG64" t="n">
         <v>4</v>
       </c>
       <c r="BH64" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BI64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ64" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BK64" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -13548,7 +13548,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>5002275</v>
+        <v>5002272</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -13568,182 +13568,182 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>O'Higgins</t>
+          <t>Cobresal</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Coquimbo Unido</t>
+          <t>Colo-Colo</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['8', '34', '77']</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>['83', '87']</t>
+          <t>['90+5']</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
         <v>9</v>
       </c>
-      <c r="S65" t="n">
-        <v>17</v>
-      </c>
       <c r="T65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X65" t="n">
         <v>2.75</v>
       </c>
-      <c r="U65" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V65" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X65" t="n">
-        <v>2.8</v>
-      </c>
       <c r="Y65" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC65" t="n">
         <v>2.65</v>
       </c>
-      <c r="Z65" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AD65" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AE65" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AF65" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG65" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AH65" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AI65" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AJ65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK65" t="n">
         <v>1.75</v>
       </c>
-      <c r="AK65" t="n">
-        <v>1.87</v>
-      </c>
       <c r="AL65" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="AM65" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AN65" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AO65" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AR65" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="AT65" t="n">
         <v>1.5</v>
       </c>
       <c r="AU65" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="AV65" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="AW65" t="n">
-        <v>3.26</v>
+        <v>3.17</v>
       </c>
       <c r="AX65" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="AY65" t="n">
         <v>5.75</v>
       </c>
       <c r="AZ65" t="n">
-        <v>2.35</v>
+        <v>1.76</v>
       </c>
       <c r="BA65" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BB65" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BC65" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BD65" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BE65" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="BF65" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BG65" t="n">
         <v>4</v>
       </c>
       <c r="BH65" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BI65" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ65" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BK65" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -14157,7 +14157,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>5002278</v>
+        <v>5002273</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -14177,113 +14177,113 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Unión Española</t>
+          <t>Magallanes</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Palestino</t>
+          <t>Universidad Católica</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
         <v>2</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>['8', '52']</t>
+          <t>['83']</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['56']</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T68" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="U68" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V68" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="W68" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X68" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA68" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB68" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AC68" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="AD68" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AE68" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="AF68" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH68" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI68" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="AK68" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AL68" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AM68" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AN68" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AO68" t="n">
         <v>1.3</v>
@@ -14292,67 +14292,67 @@
         <v>1.4</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR68" t="n">
-        <v>1.33</v>
+        <v>2.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU68" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AV68" t="n">
-        <v>2.15</v>
+        <v>1.69</v>
       </c>
       <c r="AW68" t="n">
-        <v>3.8</v>
+        <v>3.26</v>
       </c>
       <c r="AX68" t="n">
-        <v>1.71</v>
+        <v>1.91</v>
       </c>
       <c r="AY68" t="n">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="AZ68" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BA68" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BB68" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BC68" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BD68" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BE68" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="BF68" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI68" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BJ68" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BK68" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -14360,7 +14360,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>5002273</v>
+        <v>5002278</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -14380,113 +14380,113 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Magallanes</t>
+          <t>Unión Española</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Palestino</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>2</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>['8', '52']</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>['56']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T69" t="n">
+        <v>3</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD69" t="n">
         <v>3.3</v>
       </c>
-      <c r="U69" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V69" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="W69" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X69" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AE69" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="AF69" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH69" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI69" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="AK69" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AL69" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AM69" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AN69" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AO69" t="n">
         <v>1.3</v>
@@ -14495,67 +14495,67 @@
         <v>1.4</v>
       </c>
       <c r="AQ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR69" t="n">
         <v>1.33</v>
       </c>
-      <c r="AR69" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AS69" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AT69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AV69" t="n">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="AW69" t="n">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="AX69" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="AY69" t="n">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="AZ69" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BA69" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BB69" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BC69" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BD69" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BE69" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="BF69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG69" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI69" t="n">
         <v>4</v>
       </c>
-      <c r="BI69" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ69" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BK69" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT4" t="n">
         <v>0.4</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT11" t="n">
         <v>0.4</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>2.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>0.8</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>2.13</v>
@@ -5369,7 +5369,7 @@
         <v>0.8</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU24" t="n">
         <v>2.1</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>0.5</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>1.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>1.95</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU29" t="n">
         <v>2.66</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU30" t="n">
         <v>2.19</v>
@@ -7196,7 +7196,7 @@
         <v>1.4</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.58</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU34" t="n">
         <v>1.47</v>
@@ -7802,7 +7802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
         <v>2</v>
@@ -8008,7 +8008,7 @@
         <v>0.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU37" t="n">
         <v>1.84</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT39" t="n">
         <v>0.8</v>
@@ -8617,7 +8617,7 @@
         <v>1.2</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.85</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9020,7 +9020,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9226,7 +9226,7 @@
         <v>1.25</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU43" t="n">
         <v>1.79</v>
@@ -9429,7 +9429,7 @@
         <v>1.6</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU44" t="n">
         <v>1.79</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT45" t="n">
         <v>0.4</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU46" t="n">
         <v>1.77</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU48" t="n">
         <v>1.87</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT50" t="n">
         <v>2</v>
@@ -11256,7 +11256,7 @@
         <v>1.6</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU53" t="n">
         <v>2.11</v>
@@ -11659,7 +11659,7 @@
         <v>0.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT55" t="n">
         <v>0.8</v>
@@ -11862,7 +11862,7 @@
         <v>1.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>1.2</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU57" t="n">
         <v>1.97</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT58" t="n">
         <v>0.5</v>
@@ -12474,7 +12474,7 @@
         <v>1.6</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.98</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU60" t="n">
         <v>1.55</v>
@@ -12877,10 +12877,10 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU61" t="n">
         <v>2.31</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13489,7 +13489,7 @@
         <v>0.8</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU64" t="n">
         <v>1.66</v>
@@ -13692,7 +13692,7 @@
         <v>2.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU65" t="n">
         <v>1.75</v>
@@ -13892,7 +13892,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT66" t="n">
         <v>0.4</v>
@@ -14704,10 +14704,10 @@
         <v>1.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU70" t="n">
         <v>1.37</v>
@@ -14910,7 +14910,7 @@
         <v>2.25</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU71" t="n">
         <v>1.88</v>
@@ -15110,10 +15110,10 @@
         <v>0.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.75</v>
@@ -15368,6 +15368,1427 @@
       </c>
       <c r="BK73" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5002282</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45030.6875</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['13', '22', '55', '90+1', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>7</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V74" t="n">
+        <v>4</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5002406</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45030.79166666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Ñublense</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['73', '84', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7</v>
+      </c>
+      <c r="S75" t="n">
+        <v>9</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5002284</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45030.89583333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['45+3', '71']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>7</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5002281</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45031.66666666666</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Universidad Católica</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Colo-Colo</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>9</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>12</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5002287</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45031.89583333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Copiapó</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>11</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6</v>
+      </c>
+      <c r="S78" t="n">
+        <v>17</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5002280</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45032.6875</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Audax Italiano</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Universidad Chile</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['13', '74']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>6</v>
+      </c>
+      <c r="T79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5002285</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45032.89583333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Unión La Calera</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>10</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>13</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>4</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK80"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>1.8</v>
@@ -3136,7 +3136,7 @@
         <v>1.6</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>2.06</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>0.4</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>2.07</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>0.8</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
         <v>2</v>
@@ -12065,7 +12065,7 @@
         <v>2.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT57" t="n">
         <v>2.17</v>
@@ -12271,7 +12271,7 @@
         <v>1.8</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.81</v>
@@ -15316,7 +15316,7 @@
         <v>2.25</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.53</v>
@@ -16789,6 +16789,209 @@
       </c>
       <c r="BK80" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5002283</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Chile Primera División</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45033.89583333334</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Curicó Unido</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Unión Española</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
